--- a/v0.7.1/StructureDefinition-CoverageEligibilityResponse.xlsx
+++ b/v0.7.1/StructureDefinition-CoverageEligibilityResponse.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2169" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2169" uniqueCount="379">
   <si>
     <t>Property</t>
   </si>
@@ -241,6 +241,10 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>CoverageEligibilityResponse resource</t>
@@ -1673,10 +1677,10 @@
         <v>73</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M2" t="s" s="2">
         <v>19</v>
@@ -1745,7 +1749,7 @@
         <v>73</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL2" t="s" s="2">
         <v>73</v>
@@ -1754,15 +1758,15 @@
         <v>73</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1773,7 +1777,7 @@
         <v>74</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>73</v>
@@ -1782,19 +1786,19 @@
         <v>73</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -1844,13 +1848,13 @@
         <v>73</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>73</v>
@@ -1873,10 +1877,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1887,7 +1891,7 @@
         <v>74</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>73</v>
@@ -1896,16 +1900,16 @@
         <v>73</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1956,19 +1960,19 @@
         <v>73</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>73</v>
@@ -1985,10 +1989,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1999,28 +2003,28 @@
         <v>74</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>73</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2070,19 +2074,19 @@
         <v>73</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>73</v>
@@ -2099,10 +2103,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2113,7 +2117,7 @@
         <v>74</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>73</v>
@@ -2125,16 +2129,16 @@
         <v>73</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2160,13 +2164,13 @@
         <v>73</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>73</v>
@@ -2184,19 +2188,19 @@
         <v>73</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>73</v>
@@ -2213,21 +2217,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>73</v>
@@ -2239,16 +2243,16 @@
         <v>73</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2298,19 +2302,19 @@
         <v>73</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>73</v>
@@ -2322,19 +2326,19 @@
         <v>73</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2353,16 +2357,16 @@
         <v>73</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2412,7 +2416,7 @@
         <v>73</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>74</v>
@@ -2436,19 +2440,19 @@
         <v>73</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2467,16 +2471,16 @@
         <v>73</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2526,7 +2530,7 @@
         <v>73</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>74</v>
@@ -2538,7 +2542,7 @@
         <v>73</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>73</v>
@@ -2550,19 +2554,19 @@
         <v>73</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2575,25 +2579,25 @@
         <v>73</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>73</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>73</v>
@@ -2642,7 +2646,7 @@
         <v>73</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>74</v>
@@ -2654,7 +2658,7 @@
         <v>73</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>73</v>
@@ -2666,15 +2670,15 @@
         <v>73</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2682,10 +2686,10 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>73</v>
@@ -2697,17 +2701,17 @@
         <v>73</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>73</v>
@@ -2756,7 +2760,7 @@
         <v>73</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>74</v>
@@ -2768,13 +2772,13 @@
         <v>73</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>73</v>
@@ -2785,10 +2789,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2796,34 +2800,34 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>73</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>73</v>
@@ -2848,13 +2852,13 @@
         <v>73</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>73</v>
@@ -2872,25 +2876,25 @@
         <v>73</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>73</v>
@@ -2901,10 +2905,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2912,7 +2916,7 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>75</v>
@@ -2924,20 +2928,20 @@
         <v>73</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>73</v>
@@ -2962,13 +2966,13 @@
         <v>73</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>73</v>
@@ -2986,10 +2990,10 @@
         <v>73</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>75</v>
@@ -2998,13 +3002,13 @@
         <v>73</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>73</v>
@@ -3015,10 +3019,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3026,10 +3030,10 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>73</v>
@@ -3038,20 +3042,20 @@
         <v>73</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>73</v>
@@ -3100,28 +3104,28 @@
         <v>73</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>73</v>
@@ -3129,10 +3133,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3143,7 +3147,7 @@
         <v>74</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>73</v>
@@ -3155,17 +3159,17 @@
         <v>73</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>73</v>
@@ -3214,28 +3218,28 @@
         <v>73</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>73</v>
@@ -3243,10 +3247,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3254,10 +3258,10 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>73</v>
@@ -3266,20 +3270,20 @@
         <v>73</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>73</v>
@@ -3328,25 +3332,25 @@
         <v>73</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>73</v>
@@ -3357,10 +3361,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3368,10 +3372,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>73</v>
@@ -3383,16 +3387,16 @@
         <v>73</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3442,28 +3446,28 @@
         <v>73</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>73</v>
@@ -3471,10 +3475,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3482,10 +3486,10 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>73</v>
@@ -3494,20 +3498,20 @@
         <v>73</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>73</v>
@@ -3556,28 +3560,28 @@
         <v>73</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>73</v>
@@ -3585,10 +3589,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3596,10 +3600,10 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>73</v>
@@ -3608,22 +3612,22 @@
         <v>73</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>73</v>
@@ -3648,13 +3652,13 @@
         <v>73</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>73</v>
@@ -3672,19 +3676,19 @@
         <v>73</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>73</v>
@@ -3701,10 +3705,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3715,7 +3719,7 @@
         <v>74</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>73</v>
@@ -3727,17 +3731,17 @@
         <v>73</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>73</v>
@@ -3786,22 +3790,22 @@
         <v>73</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>73</v>
@@ -3815,10 +3819,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3826,10 +3830,10 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>73</v>
@@ -3838,20 +3842,20 @@
         <v>73</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>73</v>
@@ -3900,19 +3904,19 @@
         <v>73</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>73</v>
@@ -3929,10 +3933,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3955,19 +3959,19 @@
         <v>73</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>73</v>
@@ -4016,7 +4020,7 @@
         <v>73</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>74</v>
@@ -4028,7 +4032,7 @@
         <v>73</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>73</v>
@@ -4045,10 +4049,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4059,7 +4063,7 @@
         <v>74</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>73</v>
@@ -4071,13 +4075,13 @@
         <v>73</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4128,13 +4132,13 @@
         <v>73</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>73</v>
@@ -4152,19 +4156,19 @@
         <v>73</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4183,16 +4187,16 @@
         <v>73</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4242,7 +4246,7 @@
         <v>73</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>74</v>
@@ -4254,7 +4258,7 @@
         <v>73</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>73</v>
@@ -4266,19 +4270,19 @@
         <v>73</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4291,25 +4295,25 @@
         <v>73</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>73</v>
@@ -4358,7 +4362,7 @@
         <v>73</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>74</v>
@@ -4370,7 +4374,7 @@
         <v>73</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>73</v>
@@ -4382,15 +4386,15 @@
         <v>73</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4398,10 +4402,10 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>73</v>
@@ -4410,20 +4414,20 @@
         <v>73</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>73</v>
@@ -4472,19 +4476,19 @@
         <v>73</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>73</v>
@@ -4501,10 +4505,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4515,7 +4519,7 @@
         <v>74</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>73</v>
@@ -4527,17 +4531,17 @@
         <v>73</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>73</v>
@@ -4586,19 +4590,19 @@
         <v>73</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>73</v>
@@ -4615,10 +4619,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4629,7 +4633,7 @@
         <v>74</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>73</v>
@@ -4641,17 +4645,17 @@
         <v>73</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>73</v>
@@ -4700,19 +4704,19 @@
         <v>73</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>73</v>
@@ -4729,10 +4733,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4755,13 +4759,13 @@
         <v>73</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4812,7 +4816,7 @@
         <v>73</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>74</v>
@@ -4824,7 +4828,7 @@
         <v>73</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>73</v>
@@ -4841,10 +4845,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4855,7 +4859,7 @@
         <v>74</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>73</v>
@@ -4867,13 +4871,13 @@
         <v>73</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4924,13 +4928,13 @@
         <v>73</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>73</v>
@@ -4948,19 +4952,19 @@
         <v>73</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -4979,16 +4983,16 @@
         <v>73</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5038,7 +5042,7 @@
         <v>73</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>74</v>
@@ -5050,7 +5054,7 @@
         <v>73</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>73</v>
@@ -5062,19 +5066,19 @@
         <v>73</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5087,25 +5091,25 @@
         <v>73</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>73</v>
@@ -5154,7 +5158,7 @@
         <v>73</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>74</v>
@@ -5166,7 +5170,7 @@
         <v>73</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>73</v>
@@ -5178,15 +5182,15 @@
         <v>73</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5197,7 +5201,7 @@
         <v>74</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>73</v>
@@ -5209,19 +5213,19 @@
         <v>73</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>73</v>
@@ -5246,13 +5250,13 @@
         <v>73</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>73</v>
@@ -5270,19 +5274,19 @@
         <v>73</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>73</v>
@@ -5299,21 +5303,21 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>73</v>
@@ -5325,19 +5329,19 @@
         <v>73</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>73</v>
@@ -5362,13 +5366,13 @@
         <v>73</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>73</v>
@@ -5386,19 +5390,19 @@
         <v>73</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>73</v>
@@ -5415,10 +5419,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5441,19 +5445,19 @@
         <v>73</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>73</v>
@@ -5478,13 +5482,13 @@
         <v>73</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>73</v>
@@ -5502,7 +5506,7 @@
         <v>73</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>74</v>
@@ -5514,7 +5518,7 @@
         <v>73</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>73</v>
@@ -5531,10 +5535,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5545,7 +5549,7 @@
         <v>74</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>73</v>
@@ -5557,17 +5561,17 @@
         <v>73</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>73</v>
@@ -5616,28 +5620,28 @@
         <v>73</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>73</v>
@@ -5645,10 +5649,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5659,7 +5663,7 @@
         <v>74</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>73</v>
@@ -5671,17 +5675,17 @@
         <v>73</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>73</v>
@@ -5730,19 +5734,19 @@
         <v>73</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>73</v>
@@ -5759,10 +5763,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5773,7 +5777,7 @@
         <v>74</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>73</v>
@@ -5785,19 +5789,19 @@
         <v>73</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>73</v>
@@ -5846,19 +5850,19 @@
         <v>73</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>73</v>
@@ -5875,10 +5879,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5889,7 +5893,7 @@
         <v>74</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>73</v>
@@ -5901,19 +5905,19 @@
         <v>73</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>73</v>
@@ -5962,19 +5966,19 @@
         <v>73</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>73</v>
@@ -5991,10 +5995,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6005,7 +6009,7 @@
         <v>74</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>73</v>
@@ -6017,17 +6021,17 @@
         <v>73</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>73</v>
@@ -6052,13 +6056,13 @@
         <v>73</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>73</v>
@@ -6076,19 +6080,19 @@
         <v>73</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>73</v>
@@ -6105,10 +6109,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6119,7 +6123,7 @@
         <v>74</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>73</v>
@@ -6131,17 +6135,17 @@
         <v>73</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>73</v>
@@ -6166,13 +6170,13 @@
         <v>73</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>73</v>
@@ -6190,19 +6194,19 @@
         <v>73</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>73</v>
@@ -6219,10 +6223,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6233,7 +6237,7 @@
         <v>74</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>73</v>
@@ -6245,17 +6249,17 @@
         <v>73</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>73</v>
@@ -6280,13 +6284,13 @@
         <v>73</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>73</v>
@@ -6304,19 +6308,19 @@
         <v>73</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>73</v>
@@ -6333,10 +6337,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6359,13 +6363,13 @@
         <v>73</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6416,7 +6420,7 @@
         <v>73</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>74</v>
@@ -6428,7 +6432,7 @@
         <v>73</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>73</v>
@@ -6445,10 +6449,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6459,7 +6463,7 @@
         <v>74</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>73</v>
@@ -6471,13 +6475,13 @@
         <v>73</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6528,13 +6532,13 @@
         <v>73</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>73</v>
@@ -6552,19 +6556,19 @@
         <v>73</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -6583,16 +6587,16 @@
         <v>73</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6642,7 +6646,7 @@
         <v>73</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>74</v>
@@ -6654,7 +6658,7 @@
         <v>73</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>73</v>
@@ -6666,19 +6670,19 @@
         <v>73</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -6691,25 +6695,25 @@
         <v>73</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>73</v>
@@ -6758,7 +6762,7 @@
         <v>73</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>74</v>
@@ -6770,7 +6774,7 @@
         <v>73</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>73</v>
@@ -6782,15 +6786,15 @@
         <v>73</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6798,10 +6802,10 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>73</v>
@@ -6813,19 +6817,19 @@
         <v>73</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>73</v>
@@ -6850,13 +6854,13 @@
         <v>73</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>73</v>
@@ -6874,19 +6878,19 @@
         <v>73</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>73</v>
@@ -6903,10 +6907,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6917,7 +6921,7 @@
         <v>74</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>73</v>
@@ -6929,17 +6933,17 @@
         <v>73</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>73</v>
@@ -6988,19 +6992,19 @@
         <v>73</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>73</v>
@@ -7017,10 +7021,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7031,7 +7035,7 @@
         <v>74</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>73</v>
@@ -7043,17 +7047,17 @@
         <v>73</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>73</v>
@@ -7102,19 +7106,19 @@
         <v>73</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>73</v>
@@ -7131,10 +7135,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7145,7 +7149,7 @@
         <v>74</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>73</v>
@@ -7157,17 +7161,17 @@
         <v>73</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>73</v>
@@ -7216,19 +7220,19 @@
         <v>73</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>73</v>
@@ -7245,10 +7249,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7271,17 +7275,17 @@
         <v>73</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>73</v>
@@ -7306,13 +7310,13 @@
         <v>73</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>73</v>
@@ -7330,7 +7334,7 @@
         <v>73</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>74</v>
@@ -7342,7 +7346,7 @@
         <v>73</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>73</v>
@@ -7359,10 +7363,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7373,7 +7377,7 @@
         <v>74</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>73</v>
@@ -7385,17 +7389,17 @@
         <v>73</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>73</v>
@@ -7444,19 +7448,19 @@
         <v>73</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>73</v>
@@ -7473,10 +7477,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7487,7 +7491,7 @@
         <v>74</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>73</v>
@@ -7499,17 +7503,17 @@
         <v>73</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>73</v>
@@ -7558,19 +7562,19 @@
         <v>73</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>73</v>
@@ -7579,18 +7583,18 @@
         <v>73</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7601,7 +7605,7 @@
         <v>74</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>73</v>
@@ -7613,19 +7617,19 @@
         <v>73</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>73</v>
@@ -7650,13 +7654,13 @@
         <v>73</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>73</v>
@@ -7674,19 +7678,19 @@
         <v>73</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>73</v>
@@ -7695,7 +7699,7 @@
         <v>73</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>73</v>
@@ -7703,10 +7707,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7729,17 +7733,17 @@
         <v>73</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>73</v>
@@ -7788,7 +7792,7 @@
         <v>73</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>74</v>
@@ -7800,7 +7804,7 @@
         <v>73</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>73</v>
@@ -7817,10 +7821,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7831,7 +7835,7 @@
         <v>74</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>73</v>
@@ -7843,13 +7847,13 @@
         <v>73</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -7900,13 +7904,13 @@
         <v>73</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>73</v>
@@ -7924,19 +7928,19 @@
         <v>73</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -7955,16 +7959,16 @@
         <v>73</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8014,7 +8018,7 @@
         <v>73</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>74</v>
@@ -8026,7 +8030,7 @@
         <v>73</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>73</v>
@@ -8038,19 +8042,19 @@
         <v>73</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -8063,25 +8067,25 @@
         <v>73</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>73</v>
@@ -8130,7 +8134,7 @@
         <v>73</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>74</v>
@@ -8142,7 +8146,7 @@
         <v>73</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>73</v>
@@ -8154,15 +8158,15 @@
         <v>73</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8170,10 +8174,10 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>73</v>
@@ -8185,17 +8189,17 @@
         <v>73</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>73</v>
@@ -8220,13 +8224,13 @@
         <v>73</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>73</v>
@@ -8244,19 +8248,19 @@
         <v>73</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>73</v>
